--- a/natmiOut/OldD2/LR-pairs_lrc2p/Fgf2-Fgfr2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Fgf2-Fgfr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.3459667132323</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H2">
-        <v>12.3459667132323</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I2">
-        <v>0.7410013498064966</v>
+        <v>0.744640910590638</v>
       </c>
       <c r="J2">
-        <v>0.7410013498064966</v>
+        <v>0.789423007068499</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.861658026684601</v>
+        <v>0.8651055000000001</v>
       </c>
       <c r="N2">
-        <v>0.861658026684601</v>
+        <v>1.730211</v>
       </c>
       <c r="O2">
-        <v>0.4560183191061482</v>
+        <v>0.418762651604452</v>
       </c>
       <c r="P2">
-        <v>0.4560183191061482</v>
+        <v>0.3305860461170526</v>
       </c>
       <c r="Q2">
-        <v>10.63800131563751</v>
+        <v>11.609609113655</v>
       </c>
       <c r="R2">
-        <v>10.63800131563751</v>
+        <v>69.65765468193</v>
       </c>
       <c r="S2">
-        <v>0.3379101899941455</v>
+        <v>0.3118278022120892</v>
       </c>
       <c r="T2">
-        <v>0.3379101899941455</v>
+        <v>0.2609722306206091</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.3459667132323</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H3">
-        <v>12.3459667132323</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I3">
-        <v>0.7410013498064966</v>
+        <v>0.744640910590638</v>
       </c>
       <c r="J3">
-        <v>0.7410013498064966</v>
+        <v>0.789423007068499</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.866153184334875</v>
+        <v>0.9897559999999999</v>
       </c>
       <c r="N3">
-        <v>0.866153184334875</v>
+        <v>2.969268</v>
       </c>
       <c r="O3">
-        <v>0.4583973072572623</v>
+        <v>0.4791009269984018</v>
       </c>
       <c r="P3">
-        <v>0.4583973072572623</v>
+        <v>0.5673288217343945</v>
       </c>
       <c r="Q3">
-        <v>10.69349838235853</v>
+        <v>13.28240345009333</v>
       </c>
       <c r="R3">
-        <v>10.69349838235853</v>
+        <v>119.54163105084</v>
       </c>
       <c r="S3">
-        <v>0.3396730234252947</v>
+        <v>0.3567581505449087</v>
       </c>
       <c r="T3">
-        <v>0.3396730234252947</v>
+        <v>0.4478624244501941</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.3459667132323</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H4">
-        <v>12.3459667132323</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I4">
-        <v>0.7410013498064966</v>
+        <v>0.744640910590638</v>
       </c>
       <c r="J4">
-        <v>0.7410013498064966</v>
+        <v>0.789423007068499</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.108205910156539</v>
+        <v>0.1122906666666667</v>
       </c>
       <c r="N4">
-        <v>0.108205910156539</v>
+        <v>0.336872</v>
       </c>
       <c r="O4">
-        <v>0.05726619579788061</v>
+        <v>0.0543553789957005</v>
       </c>
       <c r="P4">
-        <v>0.05726619579788061</v>
+        <v>0.06436508756882468</v>
       </c>
       <c r="Q4">
-        <v>1.335906564967635</v>
+        <v>1.506926897484444</v>
       </c>
       <c r="R4">
-        <v>1.335906564967635</v>
+        <v>13.56234207736</v>
       </c>
       <c r="S4">
-        <v>0.04243432838451266</v>
+        <v>0.04047523891085766</v>
       </c>
       <c r="T4">
-        <v>0.04243432838451266</v>
+        <v>0.05081128097880885</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.3459667132323</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H5">
-        <v>12.3459667132323</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I5">
-        <v>0.7410013498064966</v>
+        <v>0.744640910590638</v>
       </c>
       <c r="J5">
-        <v>0.7410013498064966</v>
+        <v>0.789423007068499</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.0535079057429834</v>
+        <v>0.09870900000000001</v>
       </c>
       <c r="N5">
-        <v>0.0535079057429834</v>
+        <v>0.197418</v>
       </c>
       <c r="O5">
-        <v>0.02831817783870889</v>
+        <v>0.04778104240144566</v>
       </c>
       <c r="P5">
-        <v>0.02831817783870889</v>
+        <v>0.0377200445797283</v>
       </c>
       <c r="Q5">
-        <v>0.6606068231976445</v>
+        <v>1.32466260589</v>
       </c>
       <c r="R5">
-        <v>0.6606068231976445</v>
+        <v>7.947975635339999</v>
       </c>
       <c r="S5">
-        <v>0.0209838080025437</v>
+        <v>0.03557971892278238</v>
       </c>
       <c r="T5">
-        <v>0.0209838080025437</v>
+        <v>0.02977707101888695</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +776,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.555426551986694</v>
+        <v>0.1169053333333333</v>
       </c>
       <c r="H6">
-        <v>0.555426551986694</v>
+        <v>0.350716</v>
       </c>
       <c r="I6">
-        <v>0.03333654093683805</v>
+        <v>0.006486832631067555</v>
       </c>
       <c r="J6">
-        <v>0.03333654093683805</v>
+        <v>0.00687694544999633</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.861658026684601</v>
+        <v>0.8651055000000001</v>
       </c>
       <c r="N6">
-        <v>0.861658026684601</v>
+        <v>1.730211</v>
       </c>
       <c r="O6">
-        <v>0.4560183191061482</v>
+        <v>0.418762651604452</v>
       </c>
       <c r="P6">
-        <v>0.4560183191061482</v>
+        <v>0.3305860461170526</v>
       </c>
       <c r="Q6">
-        <v>0.4785877467530867</v>
+        <v>0.101135446846</v>
       </c>
       <c r="R6">
-        <v>0.4785877467530867</v>
+        <v>0.6068126810760001</v>
       </c>
       <c r="S6">
-        <v>0.01520207336283018</v>
+        <v>0.002716443233100133</v>
       </c>
       <c r="T6">
-        <v>0.01520207336283018</v>
+        <v>0.002273422205676942</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +838,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -847,49 +850,49 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.555426551986694</v>
+        <v>0.1169053333333333</v>
       </c>
       <c r="H7">
-        <v>0.555426551986694</v>
+        <v>0.350716</v>
       </c>
       <c r="I7">
-        <v>0.03333654093683805</v>
+        <v>0.006486832631067555</v>
       </c>
       <c r="J7">
-        <v>0.03333654093683805</v>
+        <v>0.00687694544999633</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.866153184334875</v>
+        <v>0.9897559999999999</v>
       </c>
       <c r="N7">
-        <v>0.866153184334875</v>
+        <v>2.969268</v>
       </c>
       <c r="O7">
-        <v>0.4583973072572623</v>
+        <v>0.4791009269984018</v>
       </c>
       <c r="P7">
-        <v>0.4583973072572623</v>
+        <v>0.5673288217343945</v>
       </c>
       <c r="Q7">
-        <v>0.481084476667415</v>
+        <v>0.1157077550986667</v>
       </c>
       <c r="R7">
-        <v>0.481084476667415</v>
+        <v>1.041369795888</v>
       </c>
       <c r="S7">
-        <v>0.01528138059871805</v>
+        <v>0.003107847526827947</v>
       </c>
       <c r="T7">
-        <v>0.01528138059871805</v>
+        <v>0.003901489359278123</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.555426551986694</v>
+        <v>0.1169053333333333</v>
       </c>
       <c r="H8">
-        <v>0.555426551986694</v>
+        <v>0.350716</v>
       </c>
       <c r="I8">
-        <v>0.03333654093683805</v>
+        <v>0.006486832631067555</v>
       </c>
       <c r="J8">
-        <v>0.03333654093683805</v>
+        <v>0.00687694544999633</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.108205910156539</v>
+        <v>0.1122906666666667</v>
       </c>
       <c r="N8">
-        <v>0.108205910156539</v>
+        <v>0.336872</v>
       </c>
       <c r="O8">
-        <v>0.05726619579788061</v>
+        <v>0.0543553789957005</v>
       </c>
       <c r="P8">
-        <v>0.05726619579788061</v>
+        <v>0.06436508756882468</v>
       </c>
       <c r="Q8">
-        <v>0.06010043558282845</v>
+        <v>0.01312737781688889</v>
       </c>
       <c r="R8">
-        <v>0.06010043558282845</v>
+        <v>0.118146400352</v>
       </c>
       <c r="S8">
-        <v>0.00190905688051303</v>
+        <v>0.000352594246143354</v>
       </c>
       <c r="T8">
-        <v>0.00190905688051303</v>
+        <v>0.0004426351960950443</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.555426551986694</v>
+        <v>0.1169053333333333</v>
       </c>
       <c r="H9">
-        <v>0.555426551986694</v>
+        <v>0.350716</v>
       </c>
       <c r="I9">
-        <v>0.03333654093683805</v>
+        <v>0.006486832631067555</v>
       </c>
       <c r="J9">
-        <v>0.03333654093683805</v>
+        <v>0.00687694544999633</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.0535079057429834</v>
+        <v>0.09870900000000001</v>
       </c>
       <c r="N9">
-        <v>0.0535079057429834</v>
+        <v>0.197418</v>
       </c>
       <c r="O9">
-        <v>0.02831817783870889</v>
+        <v>0.04778104240144566</v>
       </c>
       <c r="P9">
-        <v>0.02831817783870889</v>
+        <v>0.0377200445797283</v>
       </c>
       <c r="Q9">
-        <v>0.02971971159085429</v>
+        <v>0.011539608548</v>
       </c>
       <c r="R9">
-        <v>0.02971971159085429</v>
+        <v>0.06923765128800001</v>
       </c>
       <c r="S9">
-        <v>0.0009440300947767789</v>
+        <v>0.0003099476249961202</v>
       </c>
       <c r="T9">
-        <v>0.0009440300947767789</v>
+        <v>0.0002593986889462213</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1024,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.71304441013081</v>
+        <v>0.5570086666666666</v>
       </c>
       <c r="H10">
-        <v>0.71304441013081</v>
+        <v>1.671026</v>
       </c>
       <c r="I10">
-        <v>0.04279671917571334</v>
+        <v>0.03090724684406269</v>
       </c>
       <c r="J10">
-        <v>0.04279671917571334</v>
+        <v>0.03276598343823939</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.861658026684601</v>
+        <v>0.8651055000000001</v>
       </c>
       <c r="N10">
-        <v>0.861658026684601</v>
+        <v>1.730211</v>
       </c>
       <c r="O10">
-        <v>0.4560183191061482</v>
+        <v>0.418762651604452</v>
       </c>
       <c r="P10">
-        <v>0.4560183191061482</v>
+        <v>0.3305860461170526</v>
       </c>
       <c r="Q10">
-        <v>0.6144004393717991</v>
+        <v>0.481871261081</v>
       </c>
       <c r="R10">
-        <v>0.6144004393717991</v>
+        <v>2.891227566486</v>
       </c>
       <c r="S10">
-        <v>0.01951608794176666</v>
+        <v>0.01294280064221302</v>
       </c>
       <c r="T10">
-        <v>0.01951608794176666</v>
+        <v>0.01083197691198439</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1086,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.71304441013081</v>
+        <v>0.5570086666666666</v>
       </c>
       <c r="H11">
-        <v>0.71304441013081</v>
+        <v>1.671026</v>
       </c>
       <c r="I11">
-        <v>0.04279671917571334</v>
+        <v>0.03090724684406269</v>
       </c>
       <c r="J11">
-        <v>0.04279671917571334</v>
+        <v>0.03276598343823939</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.866153184334875</v>
+        <v>0.9897559999999999</v>
       </c>
       <c r="N11">
-        <v>0.866153184334875</v>
+        <v>2.969268</v>
       </c>
       <c r="O11">
-        <v>0.4583973072572623</v>
+        <v>0.4791009269984018</v>
       </c>
       <c r="P11">
-        <v>0.4583973072572623</v>
+        <v>0.5673288217343945</v>
       </c>
       <c r="Q11">
-        <v>0.6176056864069837</v>
+        <v>0.5513026698853332</v>
       </c>
       <c r="R11">
-        <v>0.6176056864069837</v>
+        <v>4.961724028967999</v>
       </c>
       <c r="S11">
-        <v>0.01961790082959224</v>
+        <v>0.01480769061395886</v>
       </c>
       <c r="T11">
-        <v>0.01961790082959224</v>
+        <v>0.01858908677698504</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1148,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.71304441013081</v>
+        <v>0.5570086666666666</v>
       </c>
       <c r="H12">
-        <v>0.71304441013081</v>
+        <v>1.671026</v>
       </c>
       <c r="I12">
-        <v>0.04279671917571334</v>
+        <v>0.03090724684406269</v>
       </c>
       <c r="J12">
-        <v>0.04279671917571334</v>
+        <v>0.03276598343823939</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.108205910156539</v>
+        <v>0.1122906666666667</v>
       </c>
       <c r="N12">
-        <v>0.108205910156539</v>
+        <v>0.336872</v>
       </c>
       <c r="O12">
-        <v>0.05726619579788061</v>
+        <v>0.0543553789957005</v>
       </c>
       <c r="P12">
-        <v>0.05726619579788061</v>
+        <v>0.06436508756882468</v>
       </c>
       <c r="Q12">
-        <v>0.07715561938023678</v>
+        <v>0.0625468745191111</v>
       </c>
       <c r="R12">
-        <v>0.07715561938023678</v>
+        <v>0.5629218706719999</v>
       </c>
       <c r="S12">
-        <v>0.002450805299823312</v>
+        <v>0.001679975115922696</v>
       </c>
       <c r="T12">
-        <v>0.002450805299823312</v>
+        <v>0.002108985393280938</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1210,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.71304441013081</v>
+        <v>0.5570086666666666</v>
       </c>
       <c r="H13">
-        <v>0.71304441013081</v>
+        <v>1.671026</v>
       </c>
       <c r="I13">
-        <v>0.04279671917571334</v>
+        <v>0.03090724684406269</v>
       </c>
       <c r="J13">
-        <v>0.04279671917571334</v>
+        <v>0.03276598343823939</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.0535079057429834</v>
+        <v>0.09870900000000001</v>
       </c>
       <c r="N13">
-        <v>0.0535079057429834</v>
+        <v>0.197418</v>
       </c>
       <c r="O13">
-        <v>0.02831817783870889</v>
+        <v>0.04778104240144566</v>
       </c>
       <c r="P13">
-        <v>0.02831817783870889</v>
+        <v>0.0377200445797283</v>
       </c>
       <c r="Q13">
-        <v>0.03815351308784058</v>
+        <v>0.05498176847799999</v>
       </c>
       <c r="R13">
-        <v>0.03815351308784058</v>
+        <v>0.329890610868</v>
       </c>
       <c r="S13">
-        <v>0.001211925104531133</v>
+        <v>0.001476780471968107</v>
       </c>
       <c r="T13">
-        <v>0.001211925104531133</v>
+        <v>0.001235934355989029</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1272,61 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.04675560919185</v>
+        <v>0.8611266666666667</v>
       </c>
       <c r="H14">
-        <v>3.04675560919185</v>
+        <v>2.58338</v>
       </c>
       <c r="I14">
-        <v>0.1828653900809522</v>
+        <v>0.04778211910048957</v>
       </c>
       <c r="J14">
-        <v>0.1828653900809522</v>
+        <v>0.05065569673642354</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.861658026684601</v>
+        <v>0.8651055000000001</v>
       </c>
       <c r="N14">
-        <v>0.861658026684601</v>
+        <v>1.730211</v>
       </c>
       <c r="O14">
-        <v>0.4560183191061482</v>
+        <v>0.418762651604452</v>
       </c>
       <c r="P14">
-        <v>0.4560183191061482</v>
+        <v>0.3305860461170526</v>
       </c>
       <c r="Q14">
-        <v>2.625261426006489</v>
+        <v>0.7449654155300001</v>
       </c>
       <c r="R14">
-        <v>2.625261426006489</v>
+        <v>4.469792493180001</v>
       </c>
       <c r="S14">
-        <v>0.0833899678074059</v>
+        <v>0.02000936689380075</v>
       </c>
       <c r="T14">
-        <v>0.0833899678074059</v>
+        <v>0.01674606649739874</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1334,61 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>20</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.04675560919185</v>
+        <v>0.8611266666666667</v>
       </c>
       <c r="H15">
-        <v>3.04675560919185</v>
+        <v>2.58338</v>
       </c>
       <c r="I15">
-        <v>0.1828653900809522</v>
+        <v>0.04778211910048957</v>
       </c>
       <c r="J15">
-        <v>0.1828653900809522</v>
+        <v>0.05065569673642354</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.866153184334875</v>
+        <v>0.9897559999999999</v>
       </c>
       <c r="N15">
-        <v>0.866153184334875</v>
+        <v>2.969268</v>
       </c>
       <c r="O15">
-        <v>0.4583973072572623</v>
+        <v>0.4791009269984018</v>
       </c>
       <c r="P15">
-        <v>0.4583973072572623</v>
+        <v>0.5673288217343945</v>
       </c>
       <c r="Q15">
-        <v>2.638957072791663</v>
+        <v>0.8523052850933333</v>
       </c>
       <c r="R15">
-        <v>2.638957072791663</v>
+        <v>7.670747565839999</v>
       </c>
       <c r="S15">
-        <v>0.08382500240365735</v>
+        <v>0.02289245755499259</v>
       </c>
       <c r="T15">
-        <v>0.08382500240365735</v>
+        <v>0.02873843674360998</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1396,61 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.04675560919185</v>
+        <v>0.8611266666666667</v>
       </c>
       <c r="H16">
-        <v>3.04675560919185</v>
+        <v>2.58338</v>
       </c>
       <c r="I16">
-        <v>0.1828653900809522</v>
+        <v>0.04778211910048957</v>
       </c>
       <c r="J16">
-        <v>0.1828653900809522</v>
+        <v>0.05065569673642354</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.108205910156539</v>
+        <v>0.1122906666666667</v>
       </c>
       <c r="N16">
-        <v>0.108205910156539</v>
+        <v>0.336872</v>
       </c>
       <c r="O16">
-        <v>0.05726619579788061</v>
+        <v>0.0543553789957005</v>
       </c>
       <c r="P16">
-        <v>0.05726619579788061</v>
+        <v>0.06436508756882468</v>
       </c>
       <c r="Q16">
-        <v>0.3296769637171446</v>
+        <v>0.09669648748444444</v>
       </c>
       <c r="R16">
-        <v>0.3296769637171446</v>
+        <v>0.87026838736</v>
       </c>
       <c r="S16">
-        <v>0.01047200523303162</v>
+        <v>0.002597215192924811</v>
       </c>
       <c r="T16">
-        <v>0.01047200523303162</v>
+        <v>0.003260458356299728</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1458,309 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.8611266666666667</v>
+      </c>
+      <c r="H17">
+        <v>2.58338</v>
+      </c>
+      <c r="I17">
+        <v>0.04778211910048957</v>
+      </c>
+      <c r="J17">
+        <v>0.05065569673642354</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.09870900000000001</v>
+      </c>
+      <c r="N17">
+        <v>0.197418</v>
+      </c>
+      <c r="O17">
+        <v>0.04778104240144566</v>
+      </c>
+      <c r="P17">
+        <v>0.0377200445797283</v>
+      </c>
+      <c r="Q17">
+        <v>0.08500095214</v>
+      </c>
+      <c r="R17">
+        <v>0.5100057128400001</v>
+      </c>
+      <c r="S17">
+        <v>0.002283079458771419</v>
+      </c>
+      <c r="T17">
+        <v>0.001910735139115093</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>3.0670265</v>
+      </c>
+      <c r="H18">
+        <v>6.134053</v>
+      </c>
+      <c r="I18">
+        <v>0.1701828908337422</v>
+      </c>
+      <c r="J18">
+        <v>0.1202783673068418</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.8651055000000001</v>
+      </c>
+      <c r="N18">
+        <v>1.730211</v>
+      </c>
+      <c r="O18">
+        <v>0.418762651604452</v>
+      </c>
+      <c r="P18">
+        <v>0.3305860461170526</v>
+      </c>
+      <c r="Q18">
+        <v>2.65330149379575</v>
+      </c>
+      <c r="R18">
+        <v>10.613205975183</v>
+      </c>
+      <c r="S18">
+        <v>0.07126623862324888</v>
+      </c>
+      <c r="T18">
+        <v>0.0397623498813834</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>3.0670265</v>
+      </c>
+      <c r="H19">
+        <v>6.134053</v>
+      </c>
+      <c r="I19">
+        <v>0.1701828908337422</v>
+      </c>
+      <c r="J19">
+        <v>0.1202783673068418</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.9897559999999999</v>
+      </c>
+      <c r="N19">
+        <v>2.969268</v>
+      </c>
+      <c r="O19">
+        <v>0.4791009269984018</v>
+      </c>
+      <c r="P19">
+        <v>0.5673288217343945</v>
+      </c>
+      <c r="Q19">
+        <v>3.035607880534</v>
+      </c>
+      <c r="R19">
+        <v>18.213647283204</v>
+      </c>
+      <c r="S19">
+        <v>0.08153478075771371</v>
+      </c>
+      <c r="T19">
+        <v>0.06823738440432728</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
         <v>23</v>
       </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>3.04675560919185</v>
-      </c>
-      <c r="H17">
-        <v>3.04675560919185</v>
-      </c>
-      <c r="I17">
-        <v>0.1828653900809522</v>
-      </c>
-      <c r="J17">
-        <v>0.1828653900809522</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>0.0535079057429834</v>
-      </c>
-      <c r="N17">
-        <v>0.0535079057429834</v>
-      </c>
-      <c r="O17">
-        <v>0.02831817783870889</v>
-      </c>
-      <c r="P17">
-        <v>0.02831817783870889</v>
-      </c>
-      <c r="Q17">
-        <v>0.1630255119585435</v>
-      </c>
-      <c r="R17">
-        <v>0.1630255119585435</v>
-      </c>
-      <c r="S17">
-        <v>0.005178414636857275</v>
-      </c>
-      <c r="T17">
-        <v>0.005178414636857275</v>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>3.0670265</v>
+      </c>
+      <c r="H20">
+        <v>6.134053</v>
+      </c>
+      <c r="I20">
+        <v>0.1701828908337422</v>
+      </c>
+      <c r="J20">
+        <v>0.1202783673068418</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.1122906666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.336872</v>
+      </c>
+      <c r="O20">
+        <v>0.0543553789957005</v>
+      </c>
+      <c r="P20">
+        <v>0.06436508756882468</v>
+      </c>
+      <c r="Q20">
+        <v>0.3443984503693333</v>
+      </c>
+      <c r="R20">
+        <v>2.066390702216</v>
+      </c>
+      <c r="S20">
+        <v>0.009250355529851984</v>
+      </c>
+      <c r="T20">
+        <v>0.007741727644340133</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>3.0670265</v>
+      </c>
+      <c r="H21">
+        <v>6.134053</v>
+      </c>
+      <c r="I21">
+        <v>0.1701828908337422</v>
+      </c>
+      <c r="J21">
+        <v>0.1202783673068418</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.09870900000000001</v>
+      </c>
+      <c r="N21">
+        <v>0.197418</v>
+      </c>
+      <c r="O21">
+        <v>0.04778104240144566</v>
+      </c>
+      <c r="P21">
+        <v>0.0377200445797283</v>
+      </c>
+      <c r="Q21">
+        <v>0.3027431187885</v>
+      </c>
+      <c r="R21">
+        <v>1.210972475154</v>
+      </c>
+      <c r="S21">
+        <v>0.008131515922927636</v>
+      </c>
+      <c r="T21">
+        <v>0.004536905376791008</v>
       </c>
     </row>
   </sheetData>
